--- a/output/1-never-married.xlsx
+++ b/output/1-never-married.xlsx
@@ -160,7 +160,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -231,6 +231,20 @@
       <right style="none">
         <color rgb="FF000000"/>
       </right>
+      <top style="hair">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="none">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="none">
+        <color rgb="FF000000"/>
+      </right>
       <top style="none">
         <color rgb="FF000000"/>
       </top>
@@ -245,88 +259,88 @@
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="left" vertical="top"/>
+      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="50000" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50000" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50001" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50002" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50003" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50004" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50005" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50006" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50007" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50007" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50008" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50009" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50010" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50011" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50011" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50012" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50013" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50014" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50015" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50016" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50017" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="50018" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="50018" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50019" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50020" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="50021" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment textRotation="0" horizontal="right" vertical="top"/>
+      <alignment textRotation="0" horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -620,8 +634,13 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="NA" hidden="0" customWidth="1"/>
+    <col min="2" max="2" width="NA" hidden="0" customWidth="1"/>
+    <col min="3" max="3" width="NA" hidden="0" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="NA" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -632,7 +651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="NA" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -643,7 +662,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" ht="NA" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -654,7 +673,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="NA" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -665,7 +684,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" ht="NA" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -676,7 +695,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" ht="NA" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -687,7 +706,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="NA" customHeight="1">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -698,7 +717,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" ht="NA" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
@@ -709,7 +728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" ht="NA" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
@@ -720,7 +739,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" ht="NA" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -731,7 +750,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" ht="NA" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -742,7 +761,7 @@
         <v>211.08</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" ht="NA" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -753,7 +772,7 @@
         <v>248.32</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" ht="NA" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
@@ -764,7 +783,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" ht="NA" customHeight="1">
       <c r="A14" s="4" t="s">
         <v>13</v>
       </c>

--- a/output/1-never-married.xlsx
+++ b/output/1-never-married.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ltian\OneDrive - homesite.com\Documents\workspace\github_workspace\parental-wealth-impact\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianl\Documents\GitHub\parental-wealth-impact\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_ABBEAEEC8611B15D37839ADE1E7FD3EFFDC4D8FD" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{DADCC6C5-BBD3-4452-B034-E2CC33B54413}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE46317-2CAD-45FA-AB05-5FC2B3ABF2E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t/>
   </si>
@@ -119,13 +119,21 @@
   </si>
   <si>
     <t>Table 1. Determinant of home ownership among never-married men and women</t>
+  </si>
+  <si>
+    <t>Men</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Women</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -145,6 +153,13 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -214,45 +229,45 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,183 +564,187 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.109375" customWidth="1"/>
-    <col min="2" max="3" width="12.77734375" customWidth="1"/>
+    <col min="1" max="1" width="39.08984375" customWidth="1"/>
+    <col min="2" max="3" width="12.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="8">
         <v>1055</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="8">
         <v>777</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>726.95</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>211.08</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>766.64</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>248.32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="7">
         <v>0.11</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>0.19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="9" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>0</v>
       </c>
     </row>
@@ -734,6 +753,7 @@
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A17:C17"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/output/1-never-married.xlsx
+++ b/output/1-never-married.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tianl\Documents\GitHub\parental-wealth-impact\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ltian\OneDrive - homesite.com\Documents\workspace\github_workspace\parental-wealth-impact\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE46317-2CAD-45FA-AB05-5FC2B3ABF2E4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="5_{01AC26B7-F215-41C2-B818-83102B1A4774}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet 1" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -156,7 +156,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -256,18 +256,18 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -567,31 +567,31 @@
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="39.08984375" customWidth="1"/>
-    <col min="2" max="3" width="12.81640625" customWidth="1"/>
+    <col min="1" max="1" width="39.109375" customWidth="1"/>
+    <col min="2" max="3" width="12.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="10" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -602,14 +602,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -620,7 +620,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>25</v>
       </c>
@@ -631,7 +631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>26</v>
       </c>
@@ -642,7 +642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
@@ -653,14 +653,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3">
       <c r="A9" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>29</v>
       </c>
@@ -671,7 +671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
@@ -682,7 +682,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>31</v>
       </c>
@@ -693,7 +693,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3">
       <c r="A13" s="5" t="s">
         <v>2</v>
       </c>
@@ -704,7 +704,7 @@
         <v>777</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3">
       <c r="A14" s="5" t="s">
         <v>3</v>
       </c>
@@ -715,7 +715,7 @@
         <v>211.08</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3">
       <c r="A15" s="5" t="s">
         <v>4</v>
       </c>
@@ -726,7 +726,7 @@
         <v>248.32</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3">
       <c r="A16" s="6" t="s">
         <v>5</v>
       </c>
@@ -737,14 +737,14 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+    <row r="17" spans="1:3">
+      <c r="A17" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>0</v>
       </c>
     </row>
